--- a/scala.xlsx
+++ b/scala.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scala" sheetId="1" r:id="rId1"/>
     <sheet name="actor模型" sheetId="2" r:id="rId2"/>
+    <sheet name="port" sheetId="3" r:id="rId3"/>
+    <sheet name="akka" sheetId="5" r:id="rId4"/>
+    <sheet name="MQATT 与 kafka" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t xml:space="preserve">scala </t>
   </si>
@@ -885,12 +888,120 @@
   <si>
     <t>2. 消息传递   相应式架构</t>
   </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>http://localhost:9200/</t>
+  </si>
+  <si>
+    <t>http://localhost:18083/#/</t>
+  </si>
+  <si>
+    <t>MQTT</t>
+  </si>
+  <si>
+    <t>http://localhost:5601/app/kibana#/management?_g=()</t>
+  </si>
+  <si>
+    <t>kibana</t>
+  </si>
+  <si>
+    <t>http://localhost:50070/dfshealth.html#tab-overview</t>
+  </si>
+  <si>
+    <t>namenode</t>
+  </si>
+  <si>
+    <t>http://localhost:50075/</t>
+  </si>
+  <si>
+    <t>datanode</t>
+  </si>
+  <si>
+    <t>http://localhost:60010/master-status</t>
+  </si>
+  <si>
+    <t>hbase</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>RegionServer</t>
+  </si>
+  <si>
+    <t>http://ubuntu:60030/rs-status</t>
+  </si>
+  <si>
+    <t>http://localhost:8042/node</t>
+  </si>
+  <si>
+    <t>yarn</t>
+  </si>
+  <si>
+    <t>NodeManager</t>
+  </si>
+  <si>
+    <t>ResourceManager</t>
+  </si>
+  <si>
+    <t>http://ubuntu:8088/cluster</t>
+  </si>
+  <si>
+    <t>http://ubuntu:19888/jobhistory</t>
+  </si>
+  <si>
+    <t>JobHistory Server</t>
+  </si>
+  <si>
+    <t>hdfs</t>
+  </si>
+  <si>
+    <t>http://localhost:18080/</t>
+  </si>
+  <si>
+    <t>History Server</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>ActorSystem主要有以下三个功能：</t>
+  </si>
+  <si>
+    <t>管理调度服务</t>
+  </si>
+  <si>
+    <t>配置相关参数</t>
+  </si>
+  <si>
+    <t>日志功能</t>
+  </si>
+  <si>
+    <t>Actor作为一种封装状态和行为的对象</t>
+  </si>
+  <si>
+    <t>ActorSystem是一个重量级的结构体，可以用于分配1到N个线程，所以每个应用都需要创建一个ActorSystem</t>
+  </si>
+  <si>
+    <t>InstantMessaging（即时通讯、实时传讯）的缩写是IM</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>系统间的Message</t>
+  </si>
+  <si>
+    <t>EMQ-Hook了解、连接Kafka发送消息</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1127,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1112,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1148,6 +1265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1160,6 +1278,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://img-blog.csdn.net/20161226170846570?watermark/2/text/aHR0cDovL2Jsb2cuY3Nkbi5uZXQvYmVsaWVmZXI=/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70/gravity/Center"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="4206240"/>
+          <a:ext cx="10271760" cy="6598920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1451,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D230"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" workbookViewId="0">
+    <sheetView topLeftCell="A217" workbookViewId="0">
       <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
@@ -2237,8 +2415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2293,6 +2471,11 @@
         <v>89</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="30" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>90</v>
@@ -2302,4 +2485,239 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D32" r:id="rId1" location="/"/>
+    <hyperlink ref="D35" r:id="rId2" location="/management?_g=()"/>
+    <hyperlink ref="D13" r:id="rId3" location="tab-overview"/>
+    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="D19" r:id="rId5"/>
+    <hyperlink ref="D22" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="D26" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:C12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>